--- a/webapp/Files/Upload/资金期限表/资金期限表.xlsx
+++ b/webapp/Files/Upload/资金期限表/资金期限表.xlsx
@@ -4318,6 +4318,10 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4370,10 +4374,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4693,8 +4693,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4703,22 +4703,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
+      <c r="B2" s="116"/>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
@@ -4731,22 +4731,22 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="10"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="122" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -4758,17 +4758,17 @@
       <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="111" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="122"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
@@ -4778,8 +4778,8 @@
       <c r="E5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8">
@@ -4955,7 +4955,7 @@
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="110" t="s">
         <v>295</v>
       </c>
       <c r="D14" s="34">
@@ -8334,14 +8334,14 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="111" t="s">
+      <c r="A187" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="B187" s="111"/>
-      <c r="C187" s="112" t="s">
+      <c r="B187" s="112"/>
+      <c r="C187" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="D187" s="112"/>
+      <c r="D187" s="113"/>
       <c r="E187" s="98" t="s">
         <v>287</v>
       </c>

--- a/webapp/Files/Upload/资金期限表/资金期限表.xlsx
+++ b/webapp/Files/Upload/资金期限表/资金期限表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="297">
   <si>
     <t>G25 第I部分 流动性覆盖率</t>
   </si>
@@ -3234,6 +3234,55 @@
   </si>
   <si>
     <t>NTE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱张婷：主权国家发行的风险权重为零的证券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆轶凡：主权国家发行的风险权重为零的证券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金；国债</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4694,7 +4743,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4900,7 +4949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="97.5">
+    <row r="12" spans="1:8" ht="122.25">
       <c r="A12" s="22">
         <v>6</v>
       </c>
@@ -4908,7 +4957,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D12" s="34">
         <v>1</v>
